--- a/Turma 462 - Outubro 2017/MÁRCIO (Diário de Turmas).xlsx
+++ b/Turma 462 - Outubro 2017/MÁRCIO (Diário de Turmas).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="78">
   <si>
     <t>462 Excel Avançado - Sábado 13:45</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>Férias Não haverão aulas</t>
+  </si>
+  <si>
+    <t>Nomear intervalos, funções E e Ou, E e ou com SE, Avaliar fórmulas, revisão cont se, soma se.</t>
   </si>
 </sst>
 </file>
@@ -777,6 +780,17 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -785,68 +799,57 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1166,9 +1169,9 @@
   </sheetPr>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:N1"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1180,22 +1183,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="28"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="35"/>
     </row>
     <row r="2" spans="1:14" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1210,18 +1213,18 @@
       <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="37"/>
     </row>
     <row r="3" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -1554,18 +1557,18 @@
         <f t="shared" si="0"/>
         <v>42938</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="35"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="29"/>
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
@@ -1575,18 +1578,18 @@
         <f t="shared" si="0"/>
         <v>42945</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="37"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="32"/>
     </row>
     <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
@@ -1602,7 +1605,7 @@
       <c r="D17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="26" t="s">
         <v>56</v>
       </c>
       <c r="F17" s="24"/>
@@ -1629,7 +1632,7 @@
       <c r="D18" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="26" t="s">
         <v>65</v>
       </c>
       <c r="F18" s="24"/>
@@ -1656,7 +1659,7 @@
       <c r="D19" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="26" t="s">
         <v>67</v>
       </c>
       <c r="F19" s="24"/>
@@ -1683,7 +1686,7 @@
       <c r="D20" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="26" t="s">
         <v>69</v>
       </c>
       <c r="F20" s="24"/>
@@ -1710,7 +1713,7 @@
       <c r="D21" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="26" t="s">
         <v>70</v>
       </c>
       <c r="F21" s="24"/>
@@ -1737,7 +1740,7 @@
       <c r="D22" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="26" t="s">
         <v>71</v>
       </c>
       <c r="F22" s="24"/>
@@ -1764,7 +1767,7 @@
       <c r="D23" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="26" t="s">
         <v>72</v>
       </c>
       <c r="F23" s="24"/>
@@ -1791,7 +1794,7 @@
       <c r="D24" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="26" t="s">
         <v>73</v>
       </c>
       <c r="F24" s="24"/>
@@ -1806,11 +1809,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E6:N6"/>
-    <mergeCell ref="E7:N7"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="E22:N22"/>
-    <mergeCell ref="E23:N23"/>
+    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="E5:N5"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="E2:N2"/>
     <mergeCell ref="E24:N24"/>
     <mergeCell ref="E9:N9"/>
     <mergeCell ref="E10:N10"/>
@@ -1824,11 +1827,11 @@
     <mergeCell ref="E19:N19"/>
     <mergeCell ref="E20:N20"/>
     <mergeCell ref="E21:N21"/>
-    <mergeCell ref="E4:N4"/>
-    <mergeCell ref="E5:N5"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E6:N6"/>
+    <mergeCell ref="E7:N7"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="E22:N22"/>
+    <mergeCell ref="E23:N23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1843,7 +1846,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13:N18"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1858,22 +1861,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="46"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="49"/>
     </row>
     <row r="2" spans="1:14" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1888,18 +1891,18 @@
       <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="43"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="50"/>
     </row>
     <row r="3" spans="1:14" s="22" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -1912,18 +1915,18 @@
         <v>8</v>
       </c>
       <c r="D3" s="21"/>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="50"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="55"/>
     </row>
     <row r="4" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
@@ -1937,7 +1940,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="12"/>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="51" t="s">
         <v>75</v>
       </c>
       <c r="F4" s="24"/>
@@ -1948,7 +1951,7 @@
       <c r="K4" s="24"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
-      <c r="N4" s="39"/>
+      <c r="N4" s="52"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
@@ -1962,7 +1965,9 @@
         <v>15</v>
       </c>
       <c r="D5" s="12"/>
-      <c r="E5" s="47"/>
+      <c r="E5" s="51" t="s">
+        <v>77</v>
+      </c>
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
@@ -1971,7 +1976,7 @@
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
       <c r="M5" s="24"/>
-      <c r="N5" s="39"/>
+      <c r="N5" s="52"/>
     </row>
     <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
@@ -1985,7 +1990,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="12"/>
-      <c r="E6" s="47"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
@@ -1994,7 +1999,7 @@
       <c r="K6" s="24"/>
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
-      <c r="N6" s="39"/>
+      <c r="N6" s="52"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
@@ -2008,7 +2013,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="12"/>
-      <c r="E7" s="47"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
@@ -2017,7 +2022,7 @@
       <c r="K7" s="24"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
-      <c r="N7" s="39"/>
+      <c r="N7" s="52"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
@@ -2031,7 +2036,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="12"/>
-      <c r="E8" s="47"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
@@ -2040,7 +2045,7 @@
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
-      <c r="N8" s="39"/>
+      <c r="N8" s="52"/>
     </row>
     <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
@@ -2054,7 +2059,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="47"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
@@ -2063,7 +2068,7 @@
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
-      <c r="N9" s="39"/>
+      <c r="N9" s="52"/>
     </row>
     <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
@@ -2077,7 +2082,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="47"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
@@ -2086,7 +2091,7 @@
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
-      <c r="N10" s="39"/>
+      <c r="N10" s="52"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
@@ -2100,7 +2105,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="12"/>
-      <c r="E11" s="47"/>
+      <c r="E11" s="51"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
@@ -2109,7 +2114,7 @@
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
-      <c r="N11" s="39"/>
+      <c r="N11" s="52"/>
     </row>
     <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
@@ -2123,7 +2128,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="E12" s="47"/>
+      <c r="E12" s="51"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
@@ -2132,7 +2137,7 @@
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
-      <c r="N12" s="39"/>
+      <c r="N12" s="52"/>
     </row>
     <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
@@ -2142,20 +2147,20 @@
         <f t="shared" si="0"/>
         <v>43085</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="53"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="40"/>
     </row>
     <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
@@ -2165,18 +2170,18 @@
         <f t="shared" si="0"/>
         <v>43092</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="56"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="43"/>
     </row>
     <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
@@ -2186,18 +2191,18 @@
         <f t="shared" si="0"/>
         <v>43099</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="56"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="43"/>
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
@@ -2207,18 +2212,18 @@
         <f t="shared" si="0"/>
         <v>43106</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="56"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="43"/>
     </row>
     <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
@@ -2228,18 +2233,18 @@
         <f t="shared" si="0"/>
         <v>43113</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="56"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="43"/>
     </row>
     <row r="18" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
@@ -2249,18 +2254,18 @@
         <f t="shared" si="0"/>
         <v>43120</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="59"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="46"/>
     </row>
     <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
@@ -2274,7 +2279,7 @@
         <v>40</v>
       </c>
       <c r="D19" s="12"/>
-      <c r="E19" s="38"/>
+      <c r="E19" s="56"/>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
@@ -2283,7 +2288,7 @@
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
-      <c r="N19" s="39"/>
+      <c r="N19" s="52"/>
     </row>
     <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
@@ -2297,7 +2302,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="12"/>
-      <c r="E20" s="38"/>
+      <c r="E20" s="56"/>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
@@ -2306,7 +2311,7 @@
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
-      <c r="N20" s="39"/>
+      <c r="N20" s="52"/>
     </row>
     <row r="21" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
@@ -2320,7 +2325,7 @@
         <v>51</v>
       </c>
       <c r="D21" s="12"/>
-      <c r="E21" s="38"/>
+      <c r="E21" s="56"/>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
@@ -2329,7 +2334,7 @@
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
-      <c r="N21" s="39"/>
+      <c r="N21" s="52"/>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
@@ -2343,7 +2348,7 @@
         <v>53</v>
       </c>
       <c r="D22" s="12"/>
-      <c r="E22" s="38"/>
+      <c r="E22" s="56"/>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
@@ -2352,7 +2357,7 @@
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
-      <c r="N22" s="39"/>
+      <c r="N22" s="52"/>
     </row>
     <row r="23" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
@@ -2366,7 +2371,7 @@
         <v>55</v>
       </c>
       <c r="D23" s="12"/>
-      <c r="E23" s="38"/>
+      <c r="E23" s="56"/>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
@@ -2375,7 +2380,7 @@
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
-      <c r="N23" s="39"/>
+      <c r="N23" s="52"/>
     </row>
     <row r="24" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
@@ -2389,7 +2394,7 @@
         <v>58</v>
       </c>
       <c r="D24" s="12"/>
-      <c r="E24" s="38"/>
+      <c r="E24" s="56"/>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
@@ -2398,7 +2403,7 @@
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
-      <c r="N24" s="39"/>
+      <c r="N24" s="52"/>
     </row>
     <row r="25" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
@@ -2412,7 +2417,7 @@
         <v>60</v>
       </c>
       <c r="D25" s="12"/>
-      <c r="E25" s="38"/>
+      <c r="E25" s="56"/>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
@@ -2421,7 +2426,7 @@
       <c r="K25" s="24"/>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
-      <c r="N25" s="39"/>
+      <c r="N25" s="52"/>
     </row>
     <row r="26" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
@@ -2435,7 +2440,7 @@
         <v>62</v>
       </c>
       <c r="D26" s="12"/>
-      <c r="E26" s="38"/>
+      <c r="E26" s="56"/>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
@@ -2444,7 +2449,7 @@
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
-      <c r="N26" s="39"/>
+      <c r="N26" s="52"/>
     </row>
     <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
@@ -2458,7 +2463,7 @@
         <v>64</v>
       </c>
       <c r="D27" s="12"/>
-      <c r="E27" s="38"/>
+      <c r="E27" s="56"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
@@ -2467,7 +2472,7 @@
       <c r="K27" s="24"/>
       <c r="L27" s="24"/>
       <c r="M27" s="24"/>
-      <c r="N27" s="39"/>
+      <c r="N27" s="52"/>
     </row>
     <row r="28" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
@@ -2481,19 +2486,29 @@
         <v>68</v>
       </c>
       <c r="D28" s="18"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="42"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="E27:N27"/>
+    <mergeCell ref="E28:N28"/>
+    <mergeCell ref="E19:N19"/>
+    <mergeCell ref="E20:N20"/>
+    <mergeCell ref="E21:N21"/>
+    <mergeCell ref="E22:N22"/>
+    <mergeCell ref="E23:N23"/>
+    <mergeCell ref="E24:N24"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="E25:N25"/>
     <mergeCell ref="C13:N18"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="E2:N2"/>
@@ -2507,16 +2522,6 @@
     <mergeCell ref="E11:N11"/>
     <mergeCell ref="E4:N4"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E27:N27"/>
-    <mergeCell ref="E28:N28"/>
-    <mergeCell ref="E19:N19"/>
-    <mergeCell ref="E20:N20"/>
-    <mergeCell ref="E21:N21"/>
-    <mergeCell ref="E22:N22"/>
-    <mergeCell ref="E23:N23"/>
-    <mergeCell ref="E24:N24"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="E25:N25"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Turma 462 - Outubro 2017/MÁRCIO (Diário de Turmas).xlsx
+++ b/Turma 462 - Outubro 2017/MÁRCIO (Diário de Turmas).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="79">
   <si>
     <t>462 Excel Avançado - Sábado 13:45</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>Nomear intervalos, funções E e Ou, E e ou com SE, Avaliar fórmulas, revisão cont se, soma se.</t>
+  </si>
+  <si>
+    <t>Funções de Texto, Direita, Esquerda, Ext. Texto, Localizar e Procurar, num.caract, rept, Procv e Lista suspesa, ligação entre planilhas, mover ou copiar entre abas, revisão ortografica com F7.</t>
   </si>
 </sst>
 </file>
@@ -709,7 +712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -780,17 +783,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -799,7 +791,27 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -836,20 +848,17 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1183,22 +1192,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="35"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="28"/>
     </row>
     <row r="2" spans="1:14" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1213,18 +1222,18 @@
       <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="37"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -1557,18 +1566,18 @@
         <f t="shared" si="0"/>
         <v>42938</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="29"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="35"/>
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
@@ -1578,18 +1587,18 @@
         <f t="shared" si="0"/>
         <v>42945</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="32"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="37"/>
     </row>
     <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
@@ -1605,7 +1614,7 @@
       <c r="D17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="32" t="s">
         <v>56</v>
       </c>
       <c r="F17" s="24"/>
@@ -1632,7 +1641,7 @@
       <c r="D18" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="32" t="s">
         <v>65</v>
       </c>
       <c r="F18" s="24"/>
@@ -1659,7 +1668,7 @@
       <c r="D19" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="32" t="s">
         <v>67</v>
       </c>
       <c r="F19" s="24"/>
@@ -1686,7 +1695,7 @@
       <c r="D20" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="32" t="s">
         <v>69</v>
       </c>
       <c r="F20" s="24"/>
@@ -1713,7 +1722,7 @@
       <c r="D21" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="32" t="s">
         <v>70</v>
       </c>
       <c r="F21" s="24"/>
@@ -1740,7 +1749,7 @@
       <c r="D22" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="32" t="s">
         <v>71</v>
       </c>
       <c r="F22" s="24"/>
@@ -1767,7 +1776,7 @@
       <c r="D23" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="32" t="s">
         <v>72</v>
       </c>
       <c r="F23" s="24"/>
@@ -1794,7 +1803,7 @@
       <c r="D24" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="32" t="s">
         <v>73</v>
       </c>
       <c r="F24" s="24"/>
@@ -1809,11 +1818,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E4:N4"/>
-    <mergeCell ref="E5:N5"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E6:N6"/>
+    <mergeCell ref="E7:N7"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="E22:N22"/>
+    <mergeCell ref="E23:N23"/>
     <mergeCell ref="E24:N24"/>
     <mergeCell ref="E9:N9"/>
     <mergeCell ref="E10:N10"/>
@@ -1827,11 +1836,11 @@
     <mergeCell ref="E19:N19"/>
     <mergeCell ref="E20:N20"/>
     <mergeCell ref="E21:N21"/>
-    <mergeCell ref="E6:N6"/>
-    <mergeCell ref="E7:N7"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="E22:N22"/>
-    <mergeCell ref="E23:N23"/>
+    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="E5:N5"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="E2:N2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1846,7 +1855,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5:N5"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1861,22 +1870,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="49"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="54"/>
     </row>
     <row r="2" spans="1:14" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1891,18 +1900,18 @@
       <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="50"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="55"/>
     </row>
     <row r="3" spans="1:14" s="22" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -1915,18 +1924,18 @@
         <v>8</v>
       </c>
       <c r="D3" s="21"/>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="55"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="59"/>
     </row>
     <row r="4" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
@@ -1940,7 +1949,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="12"/>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="56" t="s">
         <v>75</v>
       </c>
       <c r="F4" s="24"/>
@@ -1951,9 +1960,9 @@
       <c r="K4" s="24"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
-      <c r="N4" s="52"/>
-    </row>
-    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="N4" s="39"/>
+    </row>
+    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
@@ -1965,7 +1974,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="12"/>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="56" t="s">
         <v>77</v>
       </c>
       <c r="F5" s="24"/>
@@ -1976,9 +1985,9 @@
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
       <c r="M5" s="24"/>
-      <c r="N5" s="52"/>
-    </row>
-    <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="N5" s="39"/>
+    </row>
+    <row r="6" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
@@ -1990,16 +1999,18 @@
         <v>18</v>
       </c>
       <c r="D6" s="12"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="52"/>
+      <c r="E6" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="61"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
@@ -2013,7 +2024,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="12"/>
-      <c r="E7" s="51"/>
+      <c r="E7" s="56"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
@@ -2022,7 +2033,7 @@
       <c r="K7" s="24"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
-      <c r="N7" s="52"/>
+      <c r="N7" s="39"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
@@ -2036,7 +2047,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="12"/>
-      <c r="E8" s="51"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
@@ -2045,7 +2056,7 @@
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
-      <c r="N8" s="52"/>
+      <c r="N8" s="39"/>
     </row>
     <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
@@ -2059,7 +2070,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="51"/>
+      <c r="E9" s="56"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
@@ -2068,7 +2079,7 @@
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
-      <c r="N9" s="52"/>
+      <c r="N9" s="39"/>
     </row>
     <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
@@ -2082,7 +2093,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="51"/>
+      <c r="E10" s="56"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
@@ -2091,7 +2102,7 @@
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
-      <c r="N10" s="52"/>
+      <c r="N10" s="39"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
@@ -2105,7 +2116,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="12"/>
-      <c r="E11" s="51"/>
+      <c r="E11" s="56"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
@@ -2114,7 +2125,7 @@
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
-      <c r="N11" s="52"/>
+      <c r="N11" s="39"/>
     </row>
     <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
@@ -2128,7 +2139,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="E12" s="51"/>
+      <c r="E12" s="56"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
@@ -2137,7 +2148,7 @@
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
-      <c r="N12" s="52"/>
+      <c r="N12" s="39"/>
     </row>
     <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
@@ -2147,20 +2158,20 @@
         <f t="shared" si="0"/>
         <v>43085</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="40"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="45"/>
     </row>
     <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
@@ -2170,18 +2181,18 @@
         <f t="shared" si="0"/>
         <v>43092</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="43"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="48"/>
     </row>
     <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
@@ -2191,18 +2202,18 @@
         <f t="shared" si="0"/>
         <v>43099</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="43"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="48"/>
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
@@ -2212,18 +2223,18 @@
         <f t="shared" si="0"/>
         <v>43106</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="43"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="48"/>
     </row>
     <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
@@ -2233,18 +2244,18 @@
         <f t="shared" si="0"/>
         <v>43113</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="43"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="48"/>
     </row>
     <row r="18" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
@@ -2254,18 +2265,18 @@
         <f t="shared" si="0"/>
         <v>43120</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="46"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="51"/>
     </row>
     <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
@@ -2279,7 +2290,7 @@
         <v>40</v>
       </c>
       <c r="D19" s="12"/>
-      <c r="E19" s="56"/>
+      <c r="E19" s="38"/>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
@@ -2288,7 +2299,7 @@
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
-      <c r="N19" s="52"/>
+      <c r="N19" s="39"/>
     </row>
     <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
@@ -2302,7 +2313,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="12"/>
-      <c r="E20" s="56"/>
+      <c r="E20" s="38"/>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
@@ -2311,7 +2322,7 @@
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
-      <c r="N20" s="52"/>
+      <c r="N20" s="39"/>
     </row>
     <row r="21" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
@@ -2325,7 +2336,7 @@
         <v>51</v>
       </c>
       <c r="D21" s="12"/>
-      <c r="E21" s="56"/>
+      <c r="E21" s="38"/>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
@@ -2334,7 +2345,7 @@
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
-      <c r="N21" s="52"/>
+      <c r="N21" s="39"/>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
@@ -2348,7 +2359,7 @@
         <v>53</v>
       </c>
       <c r="D22" s="12"/>
-      <c r="E22" s="56"/>
+      <c r="E22" s="38"/>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
@@ -2357,7 +2368,7 @@
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
-      <c r="N22" s="52"/>
+      <c r="N22" s="39"/>
     </row>
     <row r="23" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
@@ -2371,7 +2382,7 @@
         <v>55</v>
       </c>
       <c r="D23" s="12"/>
-      <c r="E23" s="56"/>
+      <c r="E23" s="38"/>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
@@ -2380,7 +2391,7 @@
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
-      <c r="N23" s="52"/>
+      <c r="N23" s="39"/>
     </row>
     <row r="24" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
@@ -2394,7 +2405,7 @@
         <v>58</v>
       </c>
       <c r="D24" s="12"/>
-      <c r="E24" s="56"/>
+      <c r="E24" s="38"/>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
@@ -2403,7 +2414,7 @@
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
-      <c r="N24" s="52"/>
+      <c r="N24" s="39"/>
     </row>
     <row r="25" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
@@ -2417,7 +2428,7 @@
         <v>60</v>
       </c>
       <c r="D25" s="12"/>
-      <c r="E25" s="56"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
@@ -2426,7 +2437,7 @@
       <c r="K25" s="24"/>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
-      <c r="N25" s="52"/>
+      <c r="N25" s="39"/>
     </row>
     <row r="26" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
@@ -2440,7 +2451,7 @@
         <v>62</v>
       </c>
       <c r="D26" s="12"/>
-      <c r="E26" s="56"/>
+      <c r="E26" s="38"/>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
@@ -2449,7 +2460,7 @@
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
-      <c r="N26" s="52"/>
+      <c r="N26" s="39"/>
     </row>
     <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
@@ -2463,7 +2474,7 @@
         <v>64</v>
       </c>
       <c r="D27" s="12"/>
-      <c r="E27" s="56"/>
+      <c r="E27" s="38"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
@@ -2472,7 +2483,7 @@
       <c r="K27" s="24"/>
       <c r="L27" s="24"/>
       <c r="M27" s="24"/>
-      <c r="N27" s="52"/>
+      <c r="N27" s="39"/>
     </row>
     <row r="28" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
@@ -2486,29 +2497,19 @@
         <v>68</v>
       </c>
       <c r="D28" s="18"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="59"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E27:N27"/>
-    <mergeCell ref="E28:N28"/>
-    <mergeCell ref="E19:N19"/>
-    <mergeCell ref="E20:N20"/>
-    <mergeCell ref="E21:N21"/>
-    <mergeCell ref="E22:N22"/>
-    <mergeCell ref="E23:N23"/>
-    <mergeCell ref="E24:N24"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="E25:N25"/>
     <mergeCell ref="C13:N18"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="E2:N2"/>
@@ -2522,6 +2523,16 @@
     <mergeCell ref="E11:N11"/>
     <mergeCell ref="E4:N4"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E27:N27"/>
+    <mergeCell ref="E28:N28"/>
+    <mergeCell ref="E19:N19"/>
+    <mergeCell ref="E20:N20"/>
+    <mergeCell ref="E21:N21"/>
+    <mergeCell ref="E22:N22"/>
+    <mergeCell ref="E23:N23"/>
+    <mergeCell ref="E24:N24"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="E25:N25"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Turma 462 - Outubro 2017/MÁRCIO (Diário de Turmas).xlsx
+++ b/Turma 462 - Outubro 2017/MÁRCIO (Diário de Turmas).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="80">
   <si>
     <t>462 Excel Avançado - Sábado 13:45</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>Funções de Texto, Direita, Esquerda, Ext. Texto, Localizar e Procurar, num.caract, rept, Procv e Lista suspesa, ligação entre planilhas, mover ou copiar entre abas, revisão ortografica com F7.</t>
+  </si>
+  <si>
+    <t>Definição de Layout para o projeto loja de carro, criação de hyperlinks, formatação de bordas, alinhamento de objetos, cores personalizadas, lista suspensa, duplicar paginas, duplicar objetos utilizando control D.</t>
   </si>
 </sst>
 </file>
@@ -783,6 +786,17 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -791,27 +805,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -848,17 +842,26 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1192,22 +1195,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="28"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="35"/>
     </row>
     <row r="2" spans="1:14" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1222,18 +1225,18 @@
       <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="37"/>
     </row>
     <row r="3" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -1566,18 +1569,18 @@
         <f t="shared" si="0"/>
         <v>42938</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="35"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="29"/>
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
@@ -1587,18 +1590,18 @@
         <f t="shared" si="0"/>
         <v>42945</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="37"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="32"/>
     </row>
     <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
@@ -1614,7 +1617,7 @@
       <c r="D17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="26" t="s">
         <v>56</v>
       </c>
       <c r="F17" s="24"/>
@@ -1641,7 +1644,7 @@
       <c r="D18" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="26" t="s">
         <v>65</v>
       </c>
       <c r="F18" s="24"/>
@@ -1668,7 +1671,7 @@
       <c r="D19" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="26" t="s">
         <v>67</v>
       </c>
       <c r="F19" s="24"/>
@@ -1695,7 +1698,7 @@
       <c r="D20" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="26" t="s">
         <v>69</v>
       </c>
       <c r="F20" s="24"/>
@@ -1722,7 +1725,7 @@
       <c r="D21" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="26" t="s">
         <v>70</v>
       </c>
       <c r="F21" s="24"/>
@@ -1749,7 +1752,7 @@
       <c r="D22" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="26" t="s">
         <v>71</v>
       </c>
       <c r="F22" s="24"/>
@@ -1776,7 +1779,7 @@
       <c r="D23" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="26" t="s">
         <v>72</v>
       </c>
       <c r="F23" s="24"/>
@@ -1803,7 +1806,7 @@
       <c r="D24" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="26" t="s">
         <v>73</v>
       </c>
       <c r="F24" s="24"/>
@@ -1818,11 +1821,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E6:N6"/>
-    <mergeCell ref="E7:N7"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="E22:N22"/>
-    <mergeCell ref="E23:N23"/>
+    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="E5:N5"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="E2:N2"/>
     <mergeCell ref="E24:N24"/>
     <mergeCell ref="E9:N9"/>
     <mergeCell ref="E10:N10"/>
@@ -1836,11 +1839,11 @@
     <mergeCell ref="E19:N19"/>
     <mergeCell ref="E20:N20"/>
     <mergeCell ref="E21:N21"/>
-    <mergeCell ref="E4:N4"/>
-    <mergeCell ref="E5:N5"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E6:N6"/>
+    <mergeCell ref="E7:N7"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="E22:N22"/>
+    <mergeCell ref="E23:N23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1855,7 +1858,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5:N6"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1870,22 +1873,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="54"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="49"/>
     </row>
     <row r="2" spans="1:14" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1900,18 +1903,18 @@
       <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="55"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="50"/>
     </row>
     <row r="3" spans="1:14" s="22" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -1924,18 +1927,18 @@
         <v>8</v>
       </c>
       <c r="D3" s="21"/>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="59"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="57"/>
     </row>
     <row r="4" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
@@ -1949,7 +1952,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="12"/>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="51" t="s">
         <v>75</v>
       </c>
       <c r="F4" s="24"/>
@@ -1960,7 +1963,7 @@
       <c r="K4" s="24"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
-      <c r="N4" s="39"/>
+      <c r="N4" s="52"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
@@ -1974,7 +1977,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="12"/>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="51" t="s">
         <v>77</v>
       </c>
       <c r="F5" s="24"/>
@@ -1985,7 +1988,7 @@
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
       <c r="M5" s="24"/>
-      <c r="N5" s="39"/>
+      <c r="N5" s="52"/>
     </row>
     <row r="6" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
@@ -1999,18 +2002,18 @@
         <v>18</v>
       </c>
       <c r="D6" s="12"/>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="61"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="54"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
@@ -2024,7 +2027,9 @@
         <v>21</v>
       </c>
       <c r="D7" s="12"/>
-      <c r="E7" s="56"/>
+      <c r="E7" s="51" t="s">
+        <v>79</v>
+      </c>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
@@ -2033,7 +2038,7 @@
       <c r="K7" s="24"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
-      <c r="N7" s="39"/>
+      <c r="N7" s="52"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
@@ -2047,7 +2052,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="12"/>
-      <c r="E8" s="56"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
@@ -2056,7 +2061,7 @@
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
-      <c r="N8" s="39"/>
+      <c r="N8" s="52"/>
     </row>
     <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
@@ -2070,7 +2075,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="56"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
@@ -2079,7 +2084,7 @@
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
-      <c r="N9" s="39"/>
+      <c r="N9" s="52"/>
     </row>
     <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
@@ -2093,7 +2098,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="56"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
@@ -2102,7 +2107,7 @@
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
-      <c r="N10" s="39"/>
+      <c r="N10" s="52"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
@@ -2116,7 +2121,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="12"/>
-      <c r="E11" s="56"/>
+      <c r="E11" s="51"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
@@ -2125,7 +2130,7 @@
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
-      <c r="N11" s="39"/>
+      <c r="N11" s="52"/>
     </row>
     <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
@@ -2139,7 +2144,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="E12" s="56"/>
+      <c r="E12" s="51"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
@@ -2148,7 +2153,7 @@
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
-      <c r="N12" s="39"/>
+      <c r="N12" s="52"/>
     </row>
     <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
@@ -2158,20 +2163,20 @@
         <f t="shared" si="0"/>
         <v>43085</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="45"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="40"/>
     </row>
     <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
@@ -2181,18 +2186,18 @@
         <f t="shared" si="0"/>
         <v>43092</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="48"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="43"/>
     </row>
     <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
@@ -2202,18 +2207,18 @@
         <f t="shared" si="0"/>
         <v>43099</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="48"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="43"/>
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
@@ -2223,18 +2228,18 @@
         <f t="shared" si="0"/>
         <v>43106</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="48"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="43"/>
     </row>
     <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
@@ -2244,18 +2249,18 @@
         <f t="shared" si="0"/>
         <v>43113</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="48"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="43"/>
     </row>
     <row r="18" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
@@ -2265,18 +2270,18 @@
         <f t="shared" si="0"/>
         <v>43120</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="51"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="46"/>
     </row>
     <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
@@ -2290,7 +2295,7 @@
         <v>40</v>
       </c>
       <c r="D19" s="12"/>
-      <c r="E19" s="38"/>
+      <c r="E19" s="58"/>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
@@ -2299,7 +2304,7 @@
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
-      <c r="N19" s="39"/>
+      <c r="N19" s="52"/>
     </row>
     <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
@@ -2313,7 +2318,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="12"/>
-      <c r="E20" s="38"/>
+      <c r="E20" s="58"/>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
@@ -2322,7 +2327,7 @@
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
-      <c r="N20" s="39"/>
+      <c r="N20" s="52"/>
     </row>
     <row r="21" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
@@ -2336,7 +2341,7 @@
         <v>51</v>
       </c>
       <c r="D21" s="12"/>
-      <c r="E21" s="38"/>
+      <c r="E21" s="58"/>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
@@ -2345,7 +2350,7 @@
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
-      <c r="N21" s="39"/>
+      <c r="N21" s="52"/>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
@@ -2359,7 +2364,7 @@
         <v>53</v>
       </c>
       <c r="D22" s="12"/>
-      <c r="E22" s="38"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
@@ -2368,7 +2373,7 @@
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
-      <c r="N22" s="39"/>
+      <c r="N22" s="52"/>
     </row>
     <row r="23" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
@@ -2382,7 +2387,7 @@
         <v>55</v>
       </c>
       <c r="D23" s="12"/>
-      <c r="E23" s="38"/>
+      <c r="E23" s="58"/>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
@@ -2391,7 +2396,7 @@
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
-      <c r="N23" s="39"/>
+      <c r="N23" s="52"/>
     </row>
     <row r="24" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
@@ -2405,7 +2410,7 @@
         <v>58</v>
       </c>
       <c r="D24" s="12"/>
-      <c r="E24" s="38"/>
+      <c r="E24" s="58"/>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
@@ -2414,7 +2419,7 @@
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
-      <c r="N24" s="39"/>
+      <c r="N24" s="52"/>
     </row>
     <row r="25" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
@@ -2428,7 +2433,7 @@
         <v>60</v>
       </c>
       <c r="D25" s="12"/>
-      <c r="E25" s="38"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
@@ -2437,7 +2442,7 @@
       <c r="K25" s="24"/>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
-      <c r="N25" s="39"/>
+      <c r="N25" s="52"/>
     </row>
     <row r="26" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
@@ -2451,7 +2456,7 @@
         <v>62</v>
       </c>
       <c r="D26" s="12"/>
-      <c r="E26" s="38"/>
+      <c r="E26" s="58"/>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
@@ -2460,7 +2465,7 @@
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
-      <c r="N26" s="39"/>
+      <c r="N26" s="52"/>
     </row>
     <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
@@ -2474,7 +2479,7 @@
         <v>64</v>
       </c>
       <c r="D27" s="12"/>
-      <c r="E27" s="38"/>
+      <c r="E27" s="58"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
@@ -2483,7 +2488,7 @@
       <c r="K27" s="24"/>
       <c r="L27" s="24"/>
       <c r="M27" s="24"/>
-      <c r="N27" s="39"/>
+      <c r="N27" s="52"/>
     </row>
     <row r="28" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
@@ -2497,19 +2502,29 @@
         <v>68</v>
       </c>
       <c r="D28" s="18"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="42"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="E27:N27"/>
+    <mergeCell ref="E28:N28"/>
+    <mergeCell ref="E19:N19"/>
+    <mergeCell ref="E20:N20"/>
+    <mergeCell ref="E21:N21"/>
+    <mergeCell ref="E22:N22"/>
+    <mergeCell ref="E23:N23"/>
+    <mergeCell ref="E24:N24"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="E25:N25"/>
     <mergeCell ref="C13:N18"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="E2:N2"/>
@@ -2523,16 +2538,6 @@
     <mergeCell ref="E11:N11"/>
     <mergeCell ref="E4:N4"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E27:N27"/>
-    <mergeCell ref="E28:N28"/>
-    <mergeCell ref="E19:N19"/>
-    <mergeCell ref="E20:N20"/>
-    <mergeCell ref="E21:N21"/>
-    <mergeCell ref="E22:N22"/>
-    <mergeCell ref="E23:N23"/>
-    <mergeCell ref="E24:N24"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="E25:N25"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Turma 462 - Outubro 2017/MÁRCIO (Diário de Turmas).xlsx
+++ b/Turma 462 - Outubro 2017/MÁRCIO (Diário de Turmas).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="82">
   <si>
     <t>462 Excel Avançado - Sábado 13:45</t>
   </si>
@@ -260,6 +260,12 @@
   </si>
   <si>
     <t>Definição de Layout para o projeto loja de carro, criação de hyperlinks, formatação de bordas, alinhamento de objetos, cores personalizadas, lista suspensa, duplicar paginas, duplicar objetos utilizando control D.</t>
+  </si>
+  <si>
+    <t>Continuação Projeto Lojas de Carros com controle financeiro, funções texto, agrupando informações com somases</t>
+  </si>
+  <si>
+    <t>Finalização do projeto com graficos e dashboard, tabelas dinamicas, graficos dinamicos, conceitos de dashboards.</t>
   </si>
 </sst>
 </file>
@@ -277,24 +283,29 @@
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1856,8 +1867,8 @@
   </sheetPr>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E7" sqref="E7:N7"/>
     </sheetView>
   </sheetViews>
@@ -2052,7 +2063,9 @@
         <v>24</v>
       </c>
       <c r="D8" s="12"/>
-      <c r="E8" s="51"/>
+      <c r="E8" s="51" t="s">
+        <v>80</v>
+      </c>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
@@ -2075,7 +2088,9 @@
         <v>26</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="51"/>
+      <c r="E9" s="51" t="s">
+        <v>81</v>
+      </c>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>

--- a/Turma 462 - Outubro 2017/MÁRCIO (Diário de Turmas).xlsx
+++ b/Turma 462 - Outubro 2017/MÁRCIO (Diário de Turmas).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="83">
   <si>
     <t>462 Excel Avançado - Sábado 13:45</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>Finalização do projeto com graficos e dashboard, tabelas dinamicas, graficos dinamicos, conceitos de dashboards.</t>
+  </si>
+  <si>
+    <t>Funçoes data, Dia, Ano, Mês, Dia da semana, Numero da semana, juntar data, Hoje, Agora, Int para arredontar inteiros, Pri.maiuscula, Horas superiores a 24h, datadif, função texto com datas em diversos formatos.</t>
   </si>
 </sst>
 </file>
@@ -797,17 +800,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -816,7 +808,27 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -853,7 +865,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -865,14 +876,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1206,22 +1209,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="35"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="28"/>
     </row>
     <row r="2" spans="1:14" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1236,18 +1239,18 @@
       <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="37"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -1580,18 +1583,18 @@
         <f t="shared" si="0"/>
         <v>42938</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="29"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="35"/>
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
@@ -1601,18 +1604,18 @@
         <f t="shared" si="0"/>
         <v>42945</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="32"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="37"/>
     </row>
     <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
@@ -1628,7 +1631,7 @@
       <c r="D17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="32" t="s">
         <v>56</v>
       </c>
       <c r="F17" s="24"/>
@@ -1655,7 +1658,7 @@
       <c r="D18" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="32" t="s">
         <v>65</v>
       </c>
       <c r="F18" s="24"/>
@@ -1682,7 +1685,7 @@
       <c r="D19" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="32" t="s">
         <v>67</v>
       </c>
       <c r="F19" s="24"/>
@@ -1709,7 +1712,7 @@
       <c r="D20" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="32" t="s">
         <v>69</v>
       </c>
       <c r="F20" s="24"/>
@@ -1736,7 +1739,7 @@
       <c r="D21" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="32" t="s">
         <v>70</v>
       </c>
       <c r="F21" s="24"/>
@@ -1763,7 +1766,7 @@
       <c r="D22" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="32" t="s">
         <v>71</v>
       </c>
       <c r="F22" s="24"/>
@@ -1790,7 +1793,7 @@
       <c r="D23" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="32" t="s">
         <v>72</v>
       </c>
       <c r="F23" s="24"/>
@@ -1817,7 +1820,7 @@
       <c r="D24" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="32" t="s">
         <v>73</v>
       </c>
       <c r="F24" s="24"/>
@@ -1832,11 +1835,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E4:N4"/>
-    <mergeCell ref="E5:N5"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E6:N6"/>
+    <mergeCell ref="E7:N7"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="E22:N22"/>
+    <mergeCell ref="E23:N23"/>
     <mergeCell ref="E24:N24"/>
     <mergeCell ref="E9:N9"/>
     <mergeCell ref="E10:N10"/>
@@ -1850,11 +1853,11 @@
     <mergeCell ref="E19:N19"/>
     <mergeCell ref="E20:N20"/>
     <mergeCell ref="E21:N21"/>
-    <mergeCell ref="E6:N6"/>
-    <mergeCell ref="E7:N7"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="E22:N22"/>
-    <mergeCell ref="E23:N23"/>
+    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="E5:N5"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="E2:N2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1867,9 +1870,9 @@
   </sheetPr>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7:N7"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1884,22 +1887,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="49"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="54"/>
     </row>
     <row r="2" spans="1:14" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1914,18 +1917,18 @@
       <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="50"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="55"/>
     </row>
     <row r="3" spans="1:14" s="22" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -1938,18 +1941,18 @@
         <v>8</v>
       </c>
       <c r="D3" s="21"/>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="57"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="61"/>
     </row>
     <row r="4" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
@@ -1963,7 +1966,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="12"/>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="56" t="s">
         <v>75</v>
       </c>
       <c r="F4" s="24"/>
@@ -1974,7 +1977,7 @@
       <c r="K4" s="24"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
-      <c r="N4" s="52"/>
+      <c r="N4" s="39"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
@@ -1988,7 +1991,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="12"/>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="56" t="s">
         <v>77</v>
       </c>
       <c r="F5" s="24"/>
@@ -1999,7 +2002,7 @@
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
       <c r="M5" s="24"/>
-      <c r="N5" s="52"/>
+      <c r="N5" s="39"/>
     </row>
     <row r="6" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
@@ -2013,18 +2016,18 @@
         <v>18</v>
       </c>
       <c r="D6" s="12"/>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="54"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="58"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
@@ -2038,7 +2041,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="12"/>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="56" t="s">
         <v>79</v>
       </c>
       <c r="F7" s="24"/>
@@ -2049,7 +2052,7 @@
       <c r="K7" s="24"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
-      <c r="N7" s="52"/>
+      <c r="N7" s="39"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
@@ -2063,7 +2066,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="12"/>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="56" t="s">
         <v>80</v>
       </c>
       <c r="F8" s="24"/>
@@ -2074,7 +2077,7 @@
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
-      <c r="N8" s="52"/>
+      <c r="N8" s="39"/>
     </row>
     <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
@@ -2088,7 +2091,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="56" t="s">
         <v>81</v>
       </c>
       <c r="F9" s="24"/>
@@ -2099,9 +2102,9 @@
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
-      <c r="N9" s="52"/>
-    </row>
-    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="N9" s="39"/>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>28</v>
       </c>
@@ -2113,7 +2116,9 @@
         <v>29</v>
       </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="51"/>
+      <c r="E10" s="56" t="s">
+        <v>82</v>
+      </c>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
@@ -2122,7 +2127,7 @@
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
-      <c r="N10" s="52"/>
+      <c r="N10" s="39"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
@@ -2136,7 +2141,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="12"/>
-      <c r="E11" s="51"/>
+      <c r="E11" s="56"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
@@ -2145,7 +2150,7 @@
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
-      <c r="N11" s="52"/>
+      <c r="N11" s="39"/>
     </row>
     <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
@@ -2159,7 +2164,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="E12" s="51"/>
+      <c r="E12" s="56"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
@@ -2168,7 +2173,7 @@
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
-      <c r="N12" s="52"/>
+      <c r="N12" s="39"/>
     </row>
     <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
@@ -2178,20 +2183,20 @@
         <f t="shared" si="0"/>
         <v>43085</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="40"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="45"/>
     </row>
     <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
@@ -2201,18 +2206,18 @@
         <f t="shared" si="0"/>
         <v>43092</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="43"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="48"/>
     </row>
     <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
@@ -2222,18 +2227,18 @@
         <f t="shared" si="0"/>
         <v>43099</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="43"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="48"/>
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
@@ -2243,18 +2248,18 @@
         <f t="shared" si="0"/>
         <v>43106</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="43"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="48"/>
     </row>
     <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
@@ -2264,18 +2269,18 @@
         <f t="shared" si="0"/>
         <v>43113</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="43"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="48"/>
     </row>
     <row r="18" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
@@ -2285,18 +2290,18 @@
         <f t="shared" si="0"/>
         <v>43120</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="46"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="51"/>
     </row>
     <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
@@ -2310,7 +2315,7 @@
         <v>40</v>
       </c>
       <c r="D19" s="12"/>
-      <c r="E19" s="58"/>
+      <c r="E19" s="38"/>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
@@ -2319,7 +2324,7 @@
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
-      <c r="N19" s="52"/>
+      <c r="N19" s="39"/>
     </row>
     <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
@@ -2333,7 +2338,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="12"/>
-      <c r="E20" s="58"/>
+      <c r="E20" s="38"/>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
@@ -2342,7 +2347,7 @@
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
-      <c r="N20" s="52"/>
+      <c r="N20" s="39"/>
     </row>
     <row r="21" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
@@ -2356,7 +2361,7 @@
         <v>51</v>
       </c>
       <c r="D21" s="12"/>
-      <c r="E21" s="58"/>
+      <c r="E21" s="38"/>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
@@ -2365,7 +2370,7 @@
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
-      <c r="N21" s="52"/>
+      <c r="N21" s="39"/>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
@@ -2379,7 +2384,7 @@
         <v>53</v>
       </c>
       <c r="D22" s="12"/>
-      <c r="E22" s="58"/>
+      <c r="E22" s="38"/>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
@@ -2388,7 +2393,7 @@
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
-      <c r="N22" s="52"/>
+      <c r="N22" s="39"/>
     </row>
     <row r="23" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
@@ -2402,7 +2407,7 @@
         <v>55</v>
       </c>
       <c r="D23" s="12"/>
-      <c r="E23" s="58"/>
+      <c r="E23" s="38"/>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
@@ -2411,7 +2416,7 @@
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
-      <c r="N23" s="52"/>
+      <c r="N23" s="39"/>
     </row>
     <row r="24" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
@@ -2425,7 +2430,7 @@
         <v>58</v>
       </c>
       <c r="D24" s="12"/>
-      <c r="E24" s="58"/>
+      <c r="E24" s="38"/>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
@@ -2434,7 +2439,7 @@
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
-      <c r="N24" s="52"/>
+      <c r="N24" s="39"/>
     </row>
     <row r="25" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
@@ -2448,7 +2453,7 @@
         <v>60</v>
       </c>
       <c r="D25" s="12"/>
-      <c r="E25" s="58"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
@@ -2457,7 +2462,7 @@
       <c r="K25" s="24"/>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
-      <c r="N25" s="52"/>
+      <c r="N25" s="39"/>
     </row>
     <row r="26" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
@@ -2471,7 +2476,7 @@
         <v>62</v>
       </c>
       <c r="D26" s="12"/>
-      <c r="E26" s="58"/>
+      <c r="E26" s="38"/>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
@@ -2480,7 +2485,7 @@
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
-      <c r="N26" s="52"/>
+      <c r="N26" s="39"/>
     </row>
     <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
@@ -2494,7 +2499,7 @@
         <v>64</v>
       </c>
       <c r="D27" s="12"/>
-      <c r="E27" s="58"/>
+      <c r="E27" s="38"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
@@ -2503,7 +2508,7 @@
       <c r="K27" s="24"/>
       <c r="L27" s="24"/>
       <c r="M27" s="24"/>
-      <c r="N27" s="52"/>
+      <c r="N27" s="39"/>
     </row>
     <row r="28" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
@@ -2517,29 +2522,19 @@
         <v>68</v>
       </c>
       <c r="D28" s="18"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="61"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E27:N27"/>
-    <mergeCell ref="E28:N28"/>
-    <mergeCell ref="E19:N19"/>
-    <mergeCell ref="E20:N20"/>
-    <mergeCell ref="E21:N21"/>
-    <mergeCell ref="E22:N22"/>
-    <mergeCell ref="E23:N23"/>
-    <mergeCell ref="E24:N24"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="E25:N25"/>
     <mergeCell ref="C13:N18"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="E2:N2"/>
@@ -2553,6 +2548,16 @@
     <mergeCell ref="E11:N11"/>
     <mergeCell ref="E4:N4"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E27:N27"/>
+    <mergeCell ref="E28:N28"/>
+    <mergeCell ref="E19:N19"/>
+    <mergeCell ref="E20:N20"/>
+    <mergeCell ref="E21:N21"/>
+    <mergeCell ref="E22:N22"/>
+    <mergeCell ref="E23:N23"/>
+    <mergeCell ref="E24:N24"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="E25:N25"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Turma 462 - Outubro 2017/MÁRCIO (Diário de Turmas).xlsx
+++ b/Turma 462 - Outubro 2017/MÁRCIO (Diário de Turmas).xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcio.rosa\Desktop\TeachX.git\trunk\Turma 462 - Outubro 2017\"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="85">
   <si>
     <t>462 Excel Avançado - Sábado 13:45</t>
   </si>
@@ -269,6 +269,12 @@
   </si>
   <si>
     <t>Funçoes data, Dia, Ano, Mês, Dia da semana, Numero da semana, juntar data, Hoje, Agora, Int para arredontar inteiros, Pri.maiuscula, Horas superiores a 24h, datadif, função texto com datas em diversos formatos.</t>
+  </si>
+  <si>
+    <t>Prova</t>
+  </si>
+  <si>
+    <t>Indice corresp e controle de formularios, revisão prova</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Planilha1">
     <tabColor rgb="FF073763"/>
   </sheetPr>
   <dimension ref="A1:N24"/>
@@ -1865,14 +1871,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Planilha2">
     <tabColor rgb="FFCC0000"/>
   </sheetPr>
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10:N10"/>
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1880,7 +1886,7 @@
     <col min="1" max="1" width="8.28515625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="2.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
     <col min="14" max="14" width="13.140625" customWidth="1"/>
@@ -1904,7 +1910,7 @@
       <c r="M1" s="53"/>
       <c r="N1" s="54"/>
     </row>
-    <row r="2" spans="1:14" ht="37.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2141,7 +2147,9 @@
         <v>31</v>
       </c>
       <c r="D11" s="12"/>
-      <c r="E11" s="56"/>
+      <c r="E11" s="56" t="s">
+        <v>84</v>
+      </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
@@ -2164,7 +2172,9 @@
         <v>34</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="E12" s="56"/>
+      <c r="E12" s="56" t="s">
+        <v>83</v>
+      </c>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>

--- a/Turma 462 - Outubro 2017/MÁRCIO (Diário de Turmas).xlsx
+++ b/Turma 462 - Outubro 2017/MÁRCIO (Diário de Turmas).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="86">
   <si>
     <t>462 Excel Avançado - Sábado 13:45</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>Indice corresp e controle de formularios, revisão prova</t>
+  </si>
+  <si>
+    <t>Iniciando com Macros</t>
   </si>
 </sst>
 </file>
@@ -806,6 +809,17 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -814,27 +828,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -871,6 +865,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -882,6 +877,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1215,22 +1218,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="28"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="35"/>
     </row>
     <row r="2" spans="1:14" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1245,18 +1248,18 @@
       <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="37"/>
     </row>
     <row r="3" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -1589,18 +1592,18 @@
         <f t="shared" si="0"/>
         <v>42938</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="35"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="29"/>
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
@@ -1610,18 +1613,18 @@
         <f t="shared" si="0"/>
         <v>42945</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="37"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="32"/>
     </row>
     <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
@@ -1637,7 +1640,7 @@
       <c r="D17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="26" t="s">
         <v>56</v>
       </c>
       <c r="F17" s="24"/>
@@ -1664,7 +1667,7 @@
       <c r="D18" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="26" t="s">
         <v>65</v>
       </c>
       <c r="F18" s="24"/>
@@ -1691,7 +1694,7 @@
       <c r="D19" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="26" t="s">
         <v>67</v>
       </c>
       <c r="F19" s="24"/>
@@ -1718,7 +1721,7 @@
       <c r="D20" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="26" t="s">
         <v>69</v>
       </c>
       <c r="F20" s="24"/>
@@ -1745,7 +1748,7 @@
       <c r="D21" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="26" t="s">
         <v>70</v>
       </c>
       <c r="F21" s="24"/>
@@ -1772,7 +1775,7 @@
       <c r="D22" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="26" t="s">
         <v>71</v>
       </c>
       <c r="F22" s="24"/>
@@ -1799,7 +1802,7 @@
       <c r="D23" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="26" t="s">
         <v>72</v>
       </c>
       <c r="F23" s="24"/>
@@ -1826,7 +1829,7 @@
       <c r="D24" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="26" t="s">
         <v>73</v>
       </c>
       <c r="F24" s="24"/>
@@ -1841,11 +1844,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E6:N6"/>
-    <mergeCell ref="E7:N7"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="E22:N22"/>
-    <mergeCell ref="E23:N23"/>
+    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="E5:N5"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="E2:N2"/>
     <mergeCell ref="E24:N24"/>
     <mergeCell ref="E9:N9"/>
     <mergeCell ref="E10:N10"/>
@@ -1859,11 +1862,11 @@
     <mergeCell ref="E19:N19"/>
     <mergeCell ref="E20:N20"/>
     <mergeCell ref="E21:N21"/>
-    <mergeCell ref="E4:N4"/>
-    <mergeCell ref="E5:N5"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E6:N6"/>
+    <mergeCell ref="E7:N7"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="E22:N22"/>
+    <mergeCell ref="E23:N23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1878,7 +1881,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12:N12"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1893,22 +1896,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="54"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="49"/>
     </row>
     <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1923,18 +1926,18 @@
       <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="55"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="50"/>
     </row>
     <row r="3" spans="1:14" s="22" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -1947,18 +1950,18 @@
         <v>8</v>
       </c>
       <c r="D3" s="21"/>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="61"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="57"/>
     </row>
     <row r="4" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
@@ -1972,7 +1975,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="12"/>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="51" t="s">
         <v>75</v>
       </c>
       <c r="F4" s="24"/>
@@ -1983,7 +1986,7 @@
       <c r="K4" s="24"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
-      <c r="N4" s="39"/>
+      <c r="N4" s="52"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
@@ -1997,7 +2000,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="12"/>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="51" t="s">
         <v>77</v>
       </c>
       <c r="F5" s="24"/>
@@ -2008,7 +2011,7 @@
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
       <c r="M5" s="24"/>
-      <c r="N5" s="39"/>
+      <c r="N5" s="52"/>
     </row>
     <row r="6" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
@@ -2022,18 +2025,18 @@
         <v>18</v>
       </c>
       <c r="D6" s="12"/>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="58"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="54"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
@@ -2047,7 +2050,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="12"/>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="51" t="s">
         <v>79</v>
       </c>
       <c r="F7" s="24"/>
@@ -2058,7 +2061,7 @@
       <c r="K7" s="24"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
-      <c r="N7" s="39"/>
+      <c r="N7" s="52"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
@@ -2072,7 +2075,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="12"/>
-      <c r="E8" s="56" t="s">
+      <c r="E8" s="51" t="s">
         <v>80</v>
       </c>
       <c r="F8" s="24"/>
@@ -2083,7 +2086,7 @@
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
-      <c r="N8" s="39"/>
+      <c r="N8" s="52"/>
     </row>
     <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
@@ -2097,7 +2100,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="51" t="s">
         <v>81</v>
       </c>
       <c r="F9" s="24"/>
@@ -2108,7 +2111,7 @@
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
-      <c r="N9" s="39"/>
+      <c r="N9" s="52"/>
     </row>
     <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
@@ -2122,7 +2125,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="51" t="s">
         <v>82</v>
       </c>
       <c r="F10" s="24"/>
@@ -2133,7 +2136,7 @@
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
-      <c r="N10" s="39"/>
+      <c r="N10" s="52"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
@@ -2147,7 +2150,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="12"/>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="51" t="s">
         <v>84</v>
       </c>
       <c r="F11" s="24"/>
@@ -2158,7 +2161,7 @@
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
-      <c r="N11" s="39"/>
+      <c r="N11" s="52"/>
     </row>
     <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
@@ -2172,7 +2175,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="51" t="s">
         <v>83</v>
       </c>
       <c r="F12" s="24"/>
@@ -2183,7 +2186,7 @@
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
-      <c r="N12" s="39"/>
+      <c r="N12" s="52"/>
     </row>
     <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
@@ -2193,20 +2196,20 @@
         <f t="shared" si="0"/>
         <v>43085</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="45"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="40"/>
     </row>
     <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
@@ -2216,18 +2219,18 @@
         <f t="shared" si="0"/>
         <v>43092</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="48"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="43"/>
     </row>
     <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
@@ -2237,18 +2240,18 @@
         <f t="shared" si="0"/>
         <v>43099</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="48"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="43"/>
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
@@ -2258,18 +2261,18 @@
         <f t="shared" si="0"/>
         <v>43106</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="48"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="43"/>
     </row>
     <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
@@ -2279,18 +2282,18 @@
         <f t="shared" si="0"/>
         <v>43113</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="48"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="43"/>
     </row>
     <row r="18" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
@@ -2300,18 +2303,18 @@
         <f t="shared" si="0"/>
         <v>43120</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="51"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="46"/>
     </row>
     <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
@@ -2325,7 +2328,9 @@
         <v>40</v>
       </c>
       <c r="D19" s="12"/>
-      <c r="E19" s="38"/>
+      <c r="E19" s="58" t="s">
+        <v>85</v>
+      </c>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
@@ -2334,7 +2339,7 @@
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
-      <c r="N19" s="39"/>
+      <c r="N19" s="52"/>
     </row>
     <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
@@ -2348,7 +2353,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="12"/>
-      <c r="E20" s="38"/>
+      <c r="E20" s="58"/>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
@@ -2357,7 +2362,7 @@
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
-      <c r="N20" s="39"/>
+      <c r="N20" s="52"/>
     </row>
     <row r="21" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
@@ -2371,7 +2376,7 @@
         <v>51</v>
       </c>
       <c r="D21" s="12"/>
-      <c r="E21" s="38"/>
+      <c r="E21" s="58"/>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
@@ -2380,7 +2385,7 @@
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
-      <c r="N21" s="39"/>
+      <c r="N21" s="52"/>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
@@ -2394,7 +2399,7 @@
         <v>53</v>
       </c>
       <c r="D22" s="12"/>
-      <c r="E22" s="38"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
@@ -2403,7 +2408,7 @@
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
-      <c r="N22" s="39"/>
+      <c r="N22" s="52"/>
     </row>
     <row r="23" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
@@ -2417,7 +2422,7 @@
         <v>55</v>
       </c>
       <c r="D23" s="12"/>
-      <c r="E23" s="38"/>
+      <c r="E23" s="58"/>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
@@ -2426,7 +2431,7 @@
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
-      <c r="N23" s="39"/>
+      <c r="N23" s="52"/>
     </row>
     <row r="24" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
@@ -2440,7 +2445,7 @@
         <v>58</v>
       </c>
       <c r="D24" s="12"/>
-      <c r="E24" s="38"/>
+      <c r="E24" s="58"/>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
@@ -2449,7 +2454,7 @@
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
-      <c r="N24" s="39"/>
+      <c r="N24" s="52"/>
     </row>
     <row r="25" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
@@ -2463,7 +2468,7 @@
         <v>60</v>
       </c>
       <c r="D25" s="12"/>
-      <c r="E25" s="38"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
@@ -2472,7 +2477,7 @@
       <c r="K25" s="24"/>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
-      <c r="N25" s="39"/>
+      <c r="N25" s="52"/>
     </row>
     <row r="26" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
@@ -2486,7 +2491,7 @@
         <v>62</v>
       </c>
       <c r="D26" s="12"/>
-      <c r="E26" s="38"/>
+      <c r="E26" s="58"/>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
@@ -2495,7 +2500,7 @@
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
-      <c r="N26" s="39"/>
+      <c r="N26" s="52"/>
     </row>
     <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
@@ -2509,7 +2514,7 @@
         <v>64</v>
       </c>
       <c r="D27" s="12"/>
-      <c r="E27" s="38"/>
+      <c r="E27" s="58"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
@@ -2518,7 +2523,7 @@
       <c r="K27" s="24"/>
       <c r="L27" s="24"/>
       <c r="M27" s="24"/>
-      <c r="N27" s="39"/>
+      <c r="N27" s="52"/>
     </row>
     <row r="28" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
@@ -2532,19 +2537,29 @@
         <v>68</v>
       </c>
       <c r="D28" s="18"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="42"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="E27:N27"/>
+    <mergeCell ref="E28:N28"/>
+    <mergeCell ref="E19:N19"/>
+    <mergeCell ref="E20:N20"/>
+    <mergeCell ref="E21:N21"/>
+    <mergeCell ref="E22:N22"/>
+    <mergeCell ref="E23:N23"/>
+    <mergeCell ref="E24:N24"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="E25:N25"/>
     <mergeCell ref="C13:N18"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="E2:N2"/>
@@ -2558,16 +2573,6 @@
     <mergeCell ref="E11:N11"/>
     <mergeCell ref="E4:N4"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E27:N27"/>
-    <mergeCell ref="E28:N28"/>
-    <mergeCell ref="E19:N19"/>
-    <mergeCell ref="E20:N20"/>
-    <mergeCell ref="E21:N21"/>
-    <mergeCell ref="E22:N22"/>
-    <mergeCell ref="E23:N23"/>
-    <mergeCell ref="E24:N24"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="E25:N25"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Turma 462 - Outubro 2017/MÁRCIO (Diário de Turmas).xlsx
+++ b/Turma 462 - Outubro 2017/MÁRCIO (Diário de Turmas).xlsx
@@ -277,7 +277,7 @@
     <t>Indice corresp e controle de formularios, revisão prova</t>
   </si>
   <si>
-    <t>Iniciando com Macros</t>
+    <t>Iniciando com Macros, diferença macro X vba, alterando cores das celulas com macro.</t>
   </si>
 </sst>
 </file>
@@ -809,17 +809,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -828,7 +817,27 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -865,7 +874,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -877,14 +885,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1218,22 +1218,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="35"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="28"/>
     </row>
     <row r="2" spans="1:14" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1248,18 +1248,18 @@
       <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="37"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -1592,18 +1592,18 @@
         <f t="shared" si="0"/>
         <v>42938</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="29"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="35"/>
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
@@ -1613,18 +1613,18 @@
         <f t="shared" si="0"/>
         <v>42945</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="32"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="37"/>
     </row>
     <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
@@ -1640,7 +1640,7 @@
       <c r="D17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="32" t="s">
         <v>56</v>
       </c>
       <c r="F17" s="24"/>
@@ -1667,7 +1667,7 @@
       <c r="D18" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="32" t="s">
         <v>65</v>
       </c>
       <c r="F18" s="24"/>
@@ -1694,7 +1694,7 @@
       <c r="D19" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="32" t="s">
         <v>67</v>
       </c>
       <c r="F19" s="24"/>
@@ -1721,7 +1721,7 @@
       <c r="D20" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="32" t="s">
         <v>69</v>
       </c>
       <c r="F20" s="24"/>
@@ -1748,7 +1748,7 @@
       <c r="D21" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="32" t="s">
         <v>70</v>
       </c>
       <c r="F21" s="24"/>
@@ -1775,7 +1775,7 @@
       <c r="D22" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="32" t="s">
         <v>71</v>
       </c>
       <c r="F22" s="24"/>
@@ -1802,7 +1802,7 @@
       <c r="D23" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="32" t="s">
         <v>72</v>
       </c>
       <c r="F23" s="24"/>
@@ -1829,7 +1829,7 @@
       <c r="D24" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="32" t="s">
         <v>73</v>
       </c>
       <c r="F24" s="24"/>
@@ -1844,11 +1844,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E4:N4"/>
-    <mergeCell ref="E5:N5"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E6:N6"/>
+    <mergeCell ref="E7:N7"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="E22:N22"/>
+    <mergeCell ref="E23:N23"/>
     <mergeCell ref="E24:N24"/>
     <mergeCell ref="E9:N9"/>
     <mergeCell ref="E10:N10"/>
@@ -1862,11 +1862,11 @@
     <mergeCell ref="E19:N19"/>
     <mergeCell ref="E20:N20"/>
     <mergeCell ref="E21:N21"/>
-    <mergeCell ref="E6:N6"/>
-    <mergeCell ref="E7:N7"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="E22:N22"/>
-    <mergeCell ref="E23:N23"/>
+    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="E5:N5"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="E2:N2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1881,7 +1881,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19:N19"/>
+      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1896,22 +1896,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="49"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="54"/>
     </row>
     <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1926,18 +1926,18 @@
       <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="50"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="55"/>
     </row>
     <row r="3" spans="1:14" s="22" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -1950,18 +1950,18 @@
         <v>8</v>
       </c>
       <c r="D3" s="21"/>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="57"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="61"/>
     </row>
     <row r="4" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
@@ -1975,7 +1975,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="12"/>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="56" t="s">
         <v>75</v>
       </c>
       <c r="F4" s="24"/>
@@ -1986,7 +1986,7 @@
       <c r="K4" s="24"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
-      <c r="N4" s="52"/>
+      <c r="N4" s="39"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
@@ -2000,7 +2000,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="12"/>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="56" t="s">
         <v>77</v>
       </c>
       <c r="F5" s="24"/>
@@ -2011,7 +2011,7 @@
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
       <c r="M5" s="24"/>
-      <c r="N5" s="52"/>
+      <c r="N5" s="39"/>
     </row>
     <row r="6" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
@@ -2025,18 +2025,18 @@
         <v>18</v>
       </c>
       <c r="D6" s="12"/>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="54"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="58"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
@@ -2050,7 +2050,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="12"/>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="56" t="s">
         <v>79</v>
       </c>
       <c r="F7" s="24"/>
@@ -2061,7 +2061,7 @@
       <c r="K7" s="24"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
-      <c r="N7" s="52"/>
+      <c r="N7" s="39"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
@@ -2075,7 +2075,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="12"/>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="56" t="s">
         <v>80</v>
       </c>
       <c r="F8" s="24"/>
@@ -2086,7 +2086,7 @@
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
-      <c r="N8" s="52"/>
+      <c r="N8" s="39"/>
     </row>
     <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
@@ -2100,7 +2100,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="56" t="s">
         <v>81</v>
       </c>
       <c r="F9" s="24"/>
@@ -2111,7 +2111,7 @@
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
-      <c r="N9" s="52"/>
+      <c r="N9" s="39"/>
     </row>
     <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
@@ -2125,7 +2125,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="56" t="s">
         <v>82</v>
       </c>
       <c r="F10" s="24"/>
@@ -2136,7 +2136,7 @@
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
-      <c r="N10" s="52"/>
+      <c r="N10" s="39"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
@@ -2150,7 +2150,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="12"/>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="56" t="s">
         <v>84</v>
       </c>
       <c r="F11" s="24"/>
@@ -2161,7 +2161,7 @@
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
-      <c r="N11" s="52"/>
+      <c r="N11" s="39"/>
     </row>
     <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
@@ -2175,7 +2175,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="56" t="s">
         <v>83</v>
       </c>
       <c r="F12" s="24"/>
@@ -2186,7 +2186,7 @@
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
-      <c r="N12" s="52"/>
+      <c r="N12" s="39"/>
     </row>
     <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
@@ -2196,20 +2196,20 @@
         <f t="shared" si="0"/>
         <v>43085</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="40"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="45"/>
     </row>
     <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
@@ -2219,18 +2219,18 @@
         <f t="shared" si="0"/>
         <v>43092</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="43"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="48"/>
     </row>
     <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
@@ -2240,18 +2240,18 @@
         <f t="shared" si="0"/>
         <v>43099</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="43"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="48"/>
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
@@ -2261,18 +2261,18 @@
         <f t="shared" si="0"/>
         <v>43106</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="43"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="48"/>
     </row>
     <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
@@ -2282,18 +2282,18 @@
         <f t="shared" si="0"/>
         <v>43113</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="43"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="48"/>
     </row>
     <row r="18" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
@@ -2303,18 +2303,18 @@
         <f t="shared" si="0"/>
         <v>43120</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="46"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="51"/>
     </row>
     <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
@@ -2328,7 +2328,7 @@
         <v>40</v>
       </c>
       <c r="D19" s="12"/>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="38" t="s">
         <v>85</v>
       </c>
       <c r="F19" s="24"/>
@@ -2339,7 +2339,7 @@
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
-      <c r="N19" s="52"/>
+      <c r="N19" s="39"/>
     </row>
     <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
@@ -2353,7 +2353,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="12"/>
-      <c r="E20" s="58"/>
+      <c r="E20" s="38"/>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
@@ -2362,7 +2362,7 @@
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
-      <c r="N20" s="52"/>
+      <c r="N20" s="39"/>
     </row>
     <row r="21" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
@@ -2376,7 +2376,7 @@
         <v>51</v>
       </c>
       <c r="D21" s="12"/>
-      <c r="E21" s="58"/>
+      <c r="E21" s="38"/>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
@@ -2385,7 +2385,7 @@
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
-      <c r="N21" s="52"/>
+      <c r="N21" s="39"/>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
@@ -2399,7 +2399,7 @@
         <v>53</v>
       </c>
       <c r="D22" s="12"/>
-      <c r="E22" s="58"/>
+      <c r="E22" s="38"/>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
@@ -2408,7 +2408,7 @@
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
-      <c r="N22" s="52"/>
+      <c r="N22" s="39"/>
     </row>
     <row r="23" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
@@ -2422,7 +2422,7 @@
         <v>55</v>
       </c>
       <c r="D23" s="12"/>
-      <c r="E23" s="58"/>
+      <c r="E23" s="38"/>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
@@ -2431,7 +2431,7 @@
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
-      <c r="N23" s="52"/>
+      <c r="N23" s="39"/>
     </row>
     <row r="24" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
@@ -2445,7 +2445,7 @@
         <v>58</v>
       </c>
       <c r="D24" s="12"/>
-      <c r="E24" s="58"/>
+      <c r="E24" s="38"/>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
@@ -2454,7 +2454,7 @@
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
-      <c r="N24" s="52"/>
+      <c r="N24" s="39"/>
     </row>
     <row r="25" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
@@ -2468,7 +2468,7 @@
         <v>60</v>
       </c>
       <c r="D25" s="12"/>
-      <c r="E25" s="58"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
@@ -2477,7 +2477,7 @@
       <c r="K25" s="24"/>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
-      <c r="N25" s="52"/>
+      <c r="N25" s="39"/>
     </row>
     <row r="26" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
@@ -2491,7 +2491,7 @@
         <v>62</v>
       </c>
       <c r="D26" s="12"/>
-      <c r="E26" s="58"/>
+      <c r="E26" s="38"/>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
@@ -2500,7 +2500,7 @@
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
-      <c r="N26" s="52"/>
+      <c r="N26" s="39"/>
     </row>
     <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
@@ -2514,7 +2514,7 @@
         <v>64</v>
       </c>
       <c r="D27" s="12"/>
-      <c r="E27" s="58"/>
+      <c r="E27" s="38"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
@@ -2523,7 +2523,7 @@
       <c r="K27" s="24"/>
       <c r="L27" s="24"/>
       <c r="M27" s="24"/>
-      <c r="N27" s="52"/>
+      <c r="N27" s="39"/>
     </row>
     <row r="28" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
@@ -2537,29 +2537,19 @@
         <v>68</v>
       </c>
       <c r="D28" s="18"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="61"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E27:N27"/>
-    <mergeCell ref="E28:N28"/>
-    <mergeCell ref="E19:N19"/>
-    <mergeCell ref="E20:N20"/>
-    <mergeCell ref="E21:N21"/>
-    <mergeCell ref="E22:N22"/>
-    <mergeCell ref="E23:N23"/>
-    <mergeCell ref="E24:N24"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="E25:N25"/>
     <mergeCell ref="C13:N18"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="E2:N2"/>
@@ -2573,6 +2563,16 @@
     <mergeCell ref="E11:N11"/>
     <mergeCell ref="E4:N4"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E27:N27"/>
+    <mergeCell ref="E28:N28"/>
+    <mergeCell ref="E19:N19"/>
+    <mergeCell ref="E20:N20"/>
+    <mergeCell ref="E21:N21"/>
+    <mergeCell ref="E22:N22"/>
+    <mergeCell ref="E23:N23"/>
+    <mergeCell ref="E24:N24"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="E25:N25"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Turma 462 - Outubro 2017/MÁRCIO (Diário de Turmas).xlsx
+++ b/Turma 462 - Outubro 2017/MÁRCIO (Diário de Turmas).xlsx
@@ -277,7 +277,7 @@
     <t>Indice corresp e controle de formularios, revisão prova</t>
   </si>
   <si>
-    <t>Iniciando com Macros, diferença macro X vba, alterando cores das celulas com macro.</t>
+    <t>Iniciando com Macros, diferença macro X vba, alterando cores das celulas com macro, macro que insere linha com registro e macro que grava registro em outra aba.</t>
   </si>
 </sst>
 </file>
@@ -809,6 +809,17 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -817,27 +828,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -874,6 +865,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -885,6 +877,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1218,22 +1218,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="28"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="35"/>
     </row>
     <row r="2" spans="1:14" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1248,18 +1248,18 @@
       <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="37"/>
     </row>
     <row r="3" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -1592,18 +1592,18 @@
         <f t="shared" si="0"/>
         <v>42938</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="35"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="29"/>
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
@@ -1613,18 +1613,18 @@
         <f t="shared" si="0"/>
         <v>42945</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="37"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="32"/>
     </row>
     <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
@@ -1640,7 +1640,7 @@
       <c r="D17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="26" t="s">
         <v>56</v>
       </c>
       <c r="F17" s="24"/>
@@ -1667,7 +1667,7 @@
       <c r="D18" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="26" t="s">
         <v>65</v>
       </c>
       <c r="F18" s="24"/>
@@ -1694,7 +1694,7 @@
       <c r="D19" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="26" t="s">
         <v>67</v>
       </c>
       <c r="F19" s="24"/>
@@ -1721,7 +1721,7 @@
       <c r="D20" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="26" t="s">
         <v>69</v>
       </c>
       <c r="F20" s="24"/>
@@ -1748,7 +1748,7 @@
       <c r="D21" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="26" t="s">
         <v>70</v>
       </c>
       <c r="F21" s="24"/>
@@ -1775,7 +1775,7 @@
       <c r="D22" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="26" t="s">
         <v>71</v>
       </c>
       <c r="F22" s="24"/>
@@ -1802,7 +1802,7 @@
       <c r="D23" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="26" t="s">
         <v>72</v>
       </c>
       <c r="F23" s="24"/>
@@ -1829,7 +1829,7 @@
       <c r="D24" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="26" t="s">
         <v>73</v>
       </c>
       <c r="F24" s="24"/>
@@ -1844,11 +1844,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E6:N6"/>
-    <mergeCell ref="E7:N7"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="E22:N22"/>
-    <mergeCell ref="E23:N23"/>
+    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="E5:N5"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="E2:N2"/>
     <mergeCell ref="E24:N24"/>
     <mergeCell ref="E9:N9"/>
     <mergeCell ref="E10:N10"/>
@@ -1862,11 +1862,11 @@
     <mergeCell ref="E19:N19"/>
     <mergeCell ref="E20:N20"/>
     <mergeCell ref="E21:N21"/>
-    <mergeCell ref="E4:N4"/>
-    <mergeCell ref="E5:N5"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E6:N6"/>
+    <mergeCell ref="E7:N7"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="E22:N22"/>
+    <mergeCell ref="E23:N23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1880,8 +1880,8 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
+      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25:N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1896,22 +1896,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="54"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="49"/>
     </row>
     <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1926,18 +1926,18 @@
       <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="55"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="50"/>
     </row>
     <row r="3" spans="1:14" s="22" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -1950,18 +1950,18 @@
         <v>8</v>
       </c>
       <c r="D3" s="21"/>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="61"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="57"/>
     </row>
     <row r="4" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
@@ -1975,7 +1975,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="12"/>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="51" t="s">
         <v>75</v>
       </c>
       <c r="F4" s="24"/>
@@ -1986,7 +1986,7 @@
       <c r="K4" s="24"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
-      <c r="N4" s="39"/>
+      <c r="N4" s="52"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
@@ -2000,7 +2000,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="12"/>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="51" t="s">
         <v>77</v>
       </c>
       <c r="F5" s="24"/>
@@ -2011,7 +2011,7 @@
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
       <c r="M5" s="24"/>
-      <c r="N5" s="39"/>
+      <c r="N5" s="52"/>
     </row>
     <row r="6" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
@@ -2025,18 +2025,18 @@
         <v>18</v>
       </c>
       <c r="D6" s="12"/>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="58"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="54"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
@@ -2050,7 +2050,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="12"/>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="51" t="s">
         <v>79</v>
       </c>
       <c r="F7" s="24"/>
@@ -2061,7 +2061,7 @@
       <c r="K7" s="24"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
-      <c r="N7" s="39"/>
+      <c r="N7" s="52"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
@@ -2075,7 +2075,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="12"/>
-      <c r="E8" s="56" t="s">
+      <c r="E8" s="51" t="s">
         <v>80</v>
       </c>
       <c r="F8" s="24"/>
@@ -2086,7 +2086,7 @@
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
-      <c r="N8" s="39"/>
+      <c r="N8" s="52"/>
     </row>
     <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
@@ -2100,7 +2100,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="51" t="s">
         <v>81</v>
       </c>
       <c r="F9" s="24"/>
@@ -2111,7 +2111,7 @@
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
-      <c r="N9" s="39"/>
+      <c r="N9" s="52"/>
     </row>
     <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
@@ -2125,7 +2125,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="51" t="s">
         <v>82</v>
       </c>
       <c r="F10" s="24"/>
@@ -2136,7 +2136,7 @@
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
-      <c r="N10" s="39"/>
+      <c r="N10" s="52"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
@@ -2150,7 +2150,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="12"/>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="51" t="s">
         <v>84</v>
       </c>
       <c r="F11" s="24"/>
@@ -2161,7 +2161,7 @@
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
-      <c r="N11" s="39"/>
+      <c r="N11" s="52"/>
     </row>
     <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
@@ -2175,7 +2175,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="51" t="s">
         <v>83</v>
       </c>
       <c r="F12" s="24"/>
@@ -2186,7 +2186,7 @@
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
-      <c r="N12" s="39"/>
+      <c r="N12" s="52"/>
     </row>
     <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
@@ -2196,20 +2196,20 @@
         <f t="shared" si="0"/>
         <v>43085</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="45"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="40"/>
     </row>
     <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
@@ -2219,18 +2219,18 @@
         <f t="shared" si="0"/>
         <v>43092</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="48"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="43"/>
     </row>
     <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
@@ -2240,18 +2240,18 @@
         <f t="shared" si="0"/>
         <v>43099</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="48"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="43"/>
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
@@ -2261,18 +2261,18 @@
         <f t="shared" si="0"/>
         <v>43106</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="48"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="43"/>
     </row>
     <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
@@ -2282,18 +2282,18 @@
         <f t="shared" si="0"/>
         <v>43113</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="48"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="43"/>
     </row>
     <row r="18" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
@@ -2303,18 +2303,18 @@
         <f t="shared" si="0"/>
         <v>43120</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="51"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="46"/>
     </row>
     <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
@@ -2328,7 +2328,7 @@
         <v>40</v>
       </c>
       <c r="D19" s="12"/>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="58" t="s">
         <v>85</v>
       </c>
       <c r="F19" s="24"/>
@@ -2339,7 +2339,7 @@
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
-      <c r="N19" s="39"/>
+      <c r="N19" s="52"/>
     </row>
     <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
@@ -2353,7 +2353,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="12"/>
-      <c r="E20" s="38"/>
+      <c r="E20" s="58"/>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
@@ -2362,7 +2362,7 @@
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
-      <c r="N20" s="39"/>
+      <c r="N20" s="52"/>
     </row>
     <row r="21" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
@@ -2376,7 +2376,7 @@
         <v>51</v>
       </c>
       <c r="D21" s="12"/>
-      <c r="E21" s="38"/>
+      <c r="E21" s="58"/>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
@@ -2385,7 +2385,7 @@
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
-      <c r="N21" s="39"/>
+      <c r="N21" s="52"/>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
@@ -2399,7 +2399,7 @@
         <v>53</v>
       </c>
       <c r="D22" s="12"/>
-      <c r="E22" s="38"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
@@ -2408,7 +2408,7 @@
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
-      <c r="N22" s="39"/>
+      <c r="N22" s="52"/>
     </row>
     <row r="23" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
@@ -2422,7 +2422,7 @@
         <v>55</v>
       </c>
       <c r="D23" s="12"/>
-      <c r="E23" s="38"/>
+      <c r="E23" s="58"/>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
@@ -2431,7 +2431,7 @@
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
-      <c r="N23" s="39"/>
+      <c r="N23" s="52"/>
     </row>
     <row r="24" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
@@ -2445,7 +2445,7 @@
         <v>58</v>
       </c>
       <c r="D24" s="12"/>
-      <c r="E24" s="38"/>
+      <c r="E24" s="58"/>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
@@ -2454,7 +2454,7 @@
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
-      <c r="N24" s="39"/>
+      <c r="N24" s="52"/>
     </row>
     <row r="25" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
@@ -2468,7 +2468,7 @@
         <v>60</v>
       </c>
       <c r="D25" s="12"/>
-      <c r="E25" s="38"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
@@ -2477,7 +2477,7 @@
       <c r="K25" s="24"/>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
-      <c r="N25" s="39"/>
+      <c r="N25" s="52"/>
     </row>
     <row r="26" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
@@ -2491,7 +2491,7 @@
         <v>62</v>
       </c>
       <c r="D26" s="12"/>
-      <c r="E26" s="38"/>
+      <c r="E26" s="58"/>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
@@ -2500,7 +2500,7 @@
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
-      <c r="N26" s="39"/>
+      <c r="N26" s="52"/>
     </row>
     <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
@@ -2514,7 +2514,7 @@
         <v>64</v>
       </c>
       <c r="D27" s="12"/>
-      <c r="E27" s="38"/>
+      <c r="E27" s="58"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
@@ -2523,7 +2523,7 @@
       <c r="K27" s="24"/>
       <c r="L27" s="24"/>
       <c r="M27" s="24"/>
-      <c r="N27" s="39"/>
+      <c r="N27" s="52"/>
     </row>
     <row r="28" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
@@ -2537,19 +2537,29 @@
         <v>68</v>
       </c>
       <c r="D28" s="18"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="42"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="E27:N27"/>
+    <mergeCell ref="E28:N28"/>
+    <mergeCell ref="E19:N19"/>
+    <mergeCell ref="E20:N20"/>
+    <mergeCell ref="E21:N21"/>
+    <mergeCell ref="E22:N22"/>
+    <mergeCell ref="E23:N23"/>
+    <mergeCell ref="E24:N24"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="E25:N25"/>
     <mergeCell ref="C13:N18"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="E2:N2"/>
@@ -2563,16 +2573,6 @@
     <mergeCell ref="E11:N11"/>
     <mergeCell ref="E4:N4"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E27:N27"/>
-    <mergeCell ref="E28:N28"/>
-    <mergeCell ref="E19:N19"/>
-    <mergeCell ref="E20:N20"/>
-    <mergeCell ref="E21:N21"/>
-    <mergeCell ref="E22:N22"/>
-    <mergeCell ref="E23:N23"/>
-    <mergeCell ref="E24:N24"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="E25:N25"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Turma 462 - Outubro 2017/MÁRCIO (Diário de Turmas).xlsx
+++ b/Turma 462 - Outubro 2017/MÁRCIO (Diário de Turmas).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="87">
   <si>
     <t>462 Excel Avançado - Sábado 13:45</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>Iniciando com Macros, diferença macro X vba, alterando cores das celulas com macro, macro que insere linha com registro e macro que grava registro em outra aba.</t>
+  </si>
+  <si>
+    <t>Projeto vba que grava em outra aba, projeto vba que busca dados de outras abas.</t>
   </si>
 </sst>
 </file>
@@ -809,17 +812,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -828,7 +820,27 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -865,7 +877,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -877,14 +888,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1218,22 +1221,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="35"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="28"/>
     </row>
     <row r="2" spans="1:14" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1248,18 +1251,18 @@
       <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="37"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -1592,18 +1595,18 @@
         <f t="shared" si="0"/>
         <v>42938</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="29"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="35"/>
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
@@ -1613,18 +1616,18 @@
         <f t="shared" si="0"/>
         <v>42945</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="32"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="37"/>
     </row>
     <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
@@ -1640,7 +1643,7 @@
       <c r="D17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="32" t="s">
         <v>56</v>
       </c>
       <c r="F17" s="24"/>
@@ -1667,7 +1670,7 @@
       <c r="D18" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="32" t="s">
         <v>65</v>
       </c>
       <c r="F18" s="24"/>
@@ -1694,7 +1697,7 @@
       <c r="D19" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="32" t="s">
         <v>67</v>
       </c>
       <c r="F19" s="24"/>
@@ -1721,7 +1724,7 @@
       <c r="D20" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="32" t="s">
         <v>69</v>
       </c>
       <c r="F20" s="24"/>
@@ -1748,7 +1751,7 @@
       <c r="D21" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="32" t="s">
         <v>70</v>
       </c>
       <c r="F21" s="24"/>
@@ -1775,7 +1778,7 @@
       <c r="D22" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="32" t="s">
         <v>71</v>
       </c>
       <c r="F22" s="24"/>
@@ -1802,7 +1805,7 @@
       <c r="D23" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="32" t="s">
         <v>72</v>
       </c>
       <c r="F23" s="24"/>
@@ -1829,7 +1832,7 @@
       <c r="D24" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="32" t="s">
         <v>73</v>
       </c>
       <c r="F24" s="24"/>
@@ -1844,11 +1847,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E4:N4"/>
-    <mergeCell ref="E5:N5"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E6:N6"/>
+    <mergeCell ref="E7:N7"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="E22:N22"/>
+    <mergeCell ref="E23:N23"/>
     <mergeCell ref="E24:N24"/>
     <mergeCell ref="E9:N9"/>
     <mergeCell ref="E10:N10"/>
@@ -1862,11 +1865,11 @@
     <mergeCell ref="E19:N19"/>
     <mergeCell ref="E20:N20"/>
     <mergeCell ref="E21:N21"/>
-    <mergeCell ref="E6:N6"/>
-    <mergeCell ref="E7:N7"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="E22:N22"/>
-    <mergeCell ref="E23:N23"/>
+    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="E5:N5"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="E2:N2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1881,7 +1884,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25:N25"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21:N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1896,22 +1899,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="49"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="54"/>
     </row>
     <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1926,18 +1929,18 @@
       <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="50"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="55"/>
     </row>
     <row r="3" spans="1:14" s="22" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -1950,18 +1953,18 @@
         <v>8</v>
       </c>
       <c r="D3" s="21"/>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="57"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="61"/>
     </row>
     <row r="4" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
@@ -1975,7 +1978,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="12"/>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="56" t="s">
         <v>75</v>
       </c>
       <c r="F4" s="24"/>
@@ -1986,7 +1989,7 @@
       <c r="K4" s="24"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
-      <c r="N4" s="52"/>
+      <c r="N4" s="39"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
@@ -2000,7 +2003,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="12"/>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="56" t="s">
         <v>77</v>
       </c>
       <c r="F5" s="24"/>
@@ -2011,7 +2014,7 @@
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
       <c r="M5" s="24"/>
-      <c r="N5" s="52"/>
+      <c r="N5" s="39"/>
     </row>
     <row r="6" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
@@ -2025,18 +2028,18 @@
         <v>18</v>
       </c>
       <c r="D6" s="12"/>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="54"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="58"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
@@ -2050,7 +2053,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="12"/>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="56" t="s">
         <v>79</v>
       </c>
       <c r="F7" s="24"/>
@@ -2061,7 +2064,7 @@
       <c r="K7" s="24"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
-      <c r="N7" s="52"/>
+      <c r="N7" s="39"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
@@ -2075,7 +2078,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="12"/>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="56" t="s">
         <v>80</v>
       </c>
       <c r="F8" s="24"/>
@@ -2086,7 +2089,7 @@
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
-      <c r="N8" s="52"/>
+      <c r="N8" s="39"/>
     </row>
     <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
@@ -2100,7 +2103,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="56" t="s">
         <v>81</v>
       </c>
       <c r="F9" s="24"/>
@@ -2111,7 +2114,7 @@
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
-      <c r="N9" s="52"/>
+      <c r="N9" s="39"/>
     </row>
     <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
@@ -2125,7 +2128,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="56" t="s">
         <v>82</v>
       </c>
       <c r="F10" s="24"/>
@@ -2136,7 +2139,7 @@
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
-      <c r="N10" s="52"/>
+      <c r="N10" s="39"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
@@ -2150,7 +2153,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="12"/>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="56" t="s">
         <v>84</v>
       </c>
       <c r="F11" s="24"/>
@@ -2161,7 +2164,7 @@
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
-      <c r="N11" s="52"/>
+      <c r="N11" s="39"/>
     </row>
     <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
@@ -2175,7 +2178,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="56" t="s">
         <v>83</v>
       </c>
       <c r="F12" s="24"/>
@@ -2186,7 +2189,7 @@
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
-      <c r="N12" s="52"/>
+      <c r="N12" s="39"/>
     </row>
     <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
@@ -2196,20 +2199,20 @@
         <f t="shared" si="0"/>
         <v>43085</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="40"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="45"/>
     </row>
     <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
@@ -2219,18 +2222,18 @@
         <f t="shared" si="0"/>
         <v>43092</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="43"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="48"/>
     </row>
     <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
@@ -2240,18 +2243,18 @@
         <f t="shared" si="0"/>
         <v>43099</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="43"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="48"/>
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
@@ -2261,18 +2264,18 @@
         <f t="shared" si="0"/>
         <v>43106</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="43"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="48"/>
     </row>
     <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
@@ -2282,18 +2285,18 @@
         <f t="shared" si="0"/>
         <v>43113</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="43"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="48"/>
     </row>
     <row r="18" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
@@ -2303,18 +2306,18 @@
         <f t="shared" si="0"/>
         <v>43120</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="46"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="51"/>
     </row>
     <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
@@ -2328,7 +2331,7 @@
         <v>40</v>
       </c>
       <c r="D19" s="12"/>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="38" t="s">
         <v>85</v>
       </c>
       <c r="F19" s="24"/>
@@ -2339,7 +2342,7 @@
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
-      <c r="N19" s="52"/>
+      <c r="N19" s="39"/>
     </row>
     <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
@@ -2353,7 +2356,9 @@
         <v>44</v>
       </c>
       <c r="D20" s="12"/>
-      <c r="E20" s="58"/>
+      <c r="E20" s="38" t="s">
+        <v>86</v>
+      </c>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
@@ -2362,7 +2367,7 @@
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
-      <c r="N20" s="52"/>
+      <c r="N20" s="39"/>
     </row>
     <row r="21" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
@@ -2376,7 +2381,7 @@
         <v>51</v>
       </c>
       <c r="D21" s="12"/>
-      <c r="E21" s="58"/>
+      <c r="E21" s="38"/>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
@@ -2385,7 +2390,7 @@
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
-      <c r="N21" s="52"/>
+      <c r="N21" s="39"/>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
@@ -2399,7 +2404,7 @@
         <v>53</v>
       </c>
       <c r="D22" s="12"/>
-      <c r="E22" s="58"/>
+      <c r="E22" s="38"/>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
@@ -2408,7 +2413,7 @@
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
-      <c r="N22" s="52"/>
+      <c r="N22" s="39"/>
     </row>
     <row r="23" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
@@ -2422,7 +2427,7 @@
         <v>55</v>
       </c>
       <c r="D23" s="12"/>
-      <c r="E23" s="58"/>
+      <c r="E23" s="38"/>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
@@ -2431,7 +2436,7 @@
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
-      <c r="N23" s="52"/>
+      <c r="N23" s="39"/>
     </row>
     <row r="24" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
@@ -2445,7 +2450,7 @@
         <v>58</v>
       </c>
       <c r="D24" s="12"/>
-      <c r="E24" s="58"/>
+      <c r="E24" s="38"/>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
@@ -2454,7 +2459,7 @@
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
-      <c r="N24" s="52"/>
+      <c r="N24" s="39"/>
     </row>
     <row r="25" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
@@ -2468,7 +2473,7 @@
         <v>60</v>
       </c>
       <c r="D25" s="12"/>
-      <c r="E25" s="58"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
@@ -2477,7 +2482,7 @@
       <c r="K25" s="24"/>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
-      <c r="N25" s="52"/>
+      <c r="N25" s="39"/>
     </row>
     <row r="26" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
@@ -2491,7 +2496,7 @@
         <v>62</v>
       </c>
       <c r="D26" s="12"/>
-      <c r="E26" s="58"/>
+      <c r="E26" s="38"/>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
@@ -2500,7 +2505,7 @@
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
-      <c r="N26" s="52"/>
+      <c r="N26" s="39"/>
     </row>
     <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
@@ -2514,7 +2519,7 @@
         <v>64</v>
       </c>
       <c r="D27" s="12"/>
-      <c r="E27" s="58"/>
+      <c r="E27" s="38"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
@@ -2523,7 +2528,7 @@
       <c r="K27" s="24"/>
       <c r="L27" s="24"/>
       <c r="M27" s="24"/>
-      <c r="N27" s="52"/>
+      <c r="N27" s="39"/>
     </row>
     <row r="28" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
@@ -2537,29 +2542,19 @@
         <v>68</v>
       </c>
       <c r="D28" s="18"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="61"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E27:N27"/>
-    <mergeCell ref="E28:N28"/>
-    <mergeCell ref="E19:N19"/>
-    <mergeCell ref="E20:N20"/>
-    <mergeCell ref="E21:N21"/>
-    <mergeCell ref="E22:N22"/>
-    <mergeCell ref="E23:N23"/>
-    <mergeCell ref="E24:N24"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="E25:N25"/>
     <mergeCell ref="C13:N18"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="E2:N2"/>
@@ -2573,6 +2568,16 @@
     <mergeCell ref="E11:N11"/>
     <mergeCell ref="E4:N4"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E27:N27"/>
+    <mergeCell ref="E28:N28"/>
+    <mergeCell ref="E19:N19"/>
+    <mergeCell ref="E20:N20"/>
+    <mergeCell ref="E21:N21"/>
+    <mergeCell ref="E22:N22"/>
+    <mergeCell ref="E23:N23"/>
+    <mergeCell ref="E24:N24"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="E25:N25"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
